--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,10 +406,13 @@
       <c r="A1" t="str">
         <v>Puzzles</v>
       </c>
+      <c r="B1" t="str">
+        <v>Cars</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,21 +397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Puzzles</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Cars</v>
-      </c>
-    </row>
     <row r="5">
       <c r="B5" t="str">
         <v/>
@@ -419,7 +409,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="B5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Puzzles</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,19 +397,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Cars</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Puzzles</v>
+      </c>
+    </row>
     <row r="5">
       <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,10 +406,18 @@
       <c r="A1" t="str">
         <v/>
       </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Puzzles</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>Cars</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -415,9 +415,38 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://www.elc.co.uk/aboutus</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://www.elc.co.uk/store-finder</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://www.thetoyshop.com/weee</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://www.elc.co.uk/press</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://www.elc.co.uk/affiliates</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://careers.thetoyshop.com/</v>
+      </c>
+      <c r="G13" t="str">
+        <v>https://www.elc.co.uk/gift-cards/The-Entertainer-%26-Early-Learning-Centre-Gift-Card-%C2%A310/p/99880000001_10</v>
+      </c>
+      <c r="H13" t="str">
+        <v>https://www.elc.co.uk/klarna</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Useful links</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>Cars</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -415,9 +415,23 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://www.elc.co.uk/brands/paw-patrol</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Narrow Your Results</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Available to pick up for FREE from our stores within 30 minutes.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Add to Basket</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>Cars</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -415,9 +415,61 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Cars</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Toy</v>
+      </c>
+      <c r="C10" t="str">
+        <v>play</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Fine</v>
+      </c>
+      <c r="E10" t="str">
+        <v>selected</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Wishlist</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Early Learning Centre</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/6495305266833-Contact-Us</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/6480509734289-Delivery-information</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://www.elc.co.uk/product-safety-notices</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Our-Returns-Policy</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://www.elc.co.uk/login</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://theentertainer.zendesk.com/hc/en-gb</v>
+      </c>
+      <c r="G11" t="str">
+        <v>https://www.elc.co.uk/privacy</v>
+      </c>
+      <c r="H11" t="str">
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/32765165894801-How-to-complain</v>
+      </c>
+      <c r="I11" t="str">
+        <v>About us</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>Cars</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -415,9 +415,31 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>new-born-baby-gift-ideas</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Standard Delivery</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Home</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>soft-toys</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Brands</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Home Delivery</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>Cars</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -415,9 +415,28 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://www.elc.co.uk/</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://www.elc.co.uk/cart</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Creativity</v>
+      </c>
+      <c r="B6" t="str">
+        <v>minutes</v>
+      </c>
+      <c r="C6" t="str">
+        <v>bikes</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,21 +422,27 @@
       <c r="B5" t="str">
         <v>https://www.elc.co.uk/cart</v>
       </c>
+      <c r="C5" t="str">
+        <v>Check Out</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Creativity</v>
+        <v>creativity</v>
       </c>
       <c r="B6" t="str">
         <v>minutes</v>
       </c>
       <c r="C6" t="str">
         <v>bikes</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Search</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testData/ELCData.xlsx
+++ b/Project/testData/ELCData.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>Cars</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -415,9 +415,70 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Learning</v>
+      </c>
+      <c r="B6" t="str">
+        <v>gift</v>
+      </c>
+      <c r="C6" t="str">
+        <v>months</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Explor</v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve">Gift </v>
+      </c>
+      <c r="F6" t="str">
+        <v>Offer</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Happy</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Happyland</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Add</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Check</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Wishlist</v>
+      </c>
+      <c r="B7" t="str">
+        <v>elc</v>
+      </c>
+      <c r="C7" t="str">
+        <v>elc</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Search</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Show</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Jigsaw</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Children</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Discover</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Early</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
   </ignoredErrors>
 </worksheet>
 </file>